--- a/FactoryTorqueAccuracyTest/template.xlsx
+++ b/FactoryTorqueAccuracyTest/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nasihs\Documents\PythonScripts\FactoryTorqueAccuracyTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B886474-DBF6-43B6-B762-F96D69BAB693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424CC0BB-F67D-4581-8914-5951F67566E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{DC2F24DD-B7BE-4A09-8A28-09E12C9C9D36}"/>
   </bookViews>
@@ -344,18 +344,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -436,7 +430,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -446,12 +440,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -464,9 +452,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -491,13 +476,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -506,80 +569,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1002,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88BACF9-5C3A-4DB9-B73C-3CB1C651B97B}">
   <dimension ref="A1:O109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1012,135 +1003,135 @@
     <col min="11" max="11" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11">
+    <row r="1" spans="1:15" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8">
         <v>2106001</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15" t="s">
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-    </row>
-    <row r="2" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17">
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+    </row>
+    <row r="2" spans="1:15" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-    </row>
-    <row r="3" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="11" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+    </row>
+    <row r="3" spans="1:15" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-    </row>
-    <row r="4" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="14" t="s">
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+    </row>
+    <row r="4" spans="1:15" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15" t="s">
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
     </row>
     <row r="5" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:15" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:15" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:15" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:15" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
     </row>
     <row r="10" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
     </row>
     <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
     </row>
     <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
     </row>
     <row r="13" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
@@ -1154,11 +1145,11 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="9">
+      <c r="C14" s="20"/>
+      <c r="D14" s="15">
         <f>A1</f>
         <v>2106001</v>
       </c>
@@ -1181,15 +1172,15 @@
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27">
+      <c r="C16" s="20"/>
+      <c r="D16" s="21">
         <f>A2</f>
         <v>1</v>
       </c>
-      <c r="E16" s="27"/>
+      <c r="E16" s="21"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="2"/>
@@ -1208,10 +1199,10 @@
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="26"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="1" t="s">
         <v>5</v>
       </c>
@@ -1245,13 +1236,13 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="3" t="str">
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="13" t="str">
         <f>C1</f>
         <v>01040001</v>
       </c>
@@ -1272,18 +1263,18 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="18"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="45" t="str">
+      <c r="F23" s="23" t="str">
         <f>C2</f>
         <v>Torque Wrench 400 WLAN</v>
       </c>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
@@ -1299,13 +1290,13 @@
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="4" t="str">
+      <c r="F25" s="16" t="str">
         <f>C3</f>
         <v xml:space="preserve">400 N·m </v>
       </c>
@@ -1326,17 +1317,17 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="19" t="str">
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="42" t="str">
         <f>C4</f>
         <v>01040204008</v>
       </c>
-      <c r="G27" s="20"/>
+      <c r="G27" s="43"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -1350,7 +1341,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="6"/>
+      <c r="J28" s="4"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
@@ -1364,95 +1355,95 @@
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="21" t="str">
+      <c r="B30" s="44" t="str">
         <f>CONCATENATE(J1, C4, J2)</f>
         <v>Etalonné suivant la procédure No. CPD.ACM.001. Le capteur de couple référencé ci-dessus, a été     étalonné en position horizontale. Des valeurs de couple ascendantes ont été appliquées à l'aide du système de calibration ACM.01 équipé par capteurs de référence S/N 01040204008 validés par certificat d'etalonnage S1611630,S1611631,S1611632. Ces valeurs de couple ont été appliquées une seule fois, dans le sens horaire et/ou anti-horaire comme indiqué à la page 2 (sens vu du coté du carré entrainant). L'étalonnage a été fail à l'aide de poutre et masses racordées aux standards nationaux. L'incertitude sur le couple était de 0.05% du couple appliqué ou 0.003 N·m (le plus grand des deux)</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
     </row>
     <row r="32" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
     </row>
     <row r="38" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
@@ -1466,95 +1457,95 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B39" s="22" t="str">
+      <c r="B39" s="45" t="str">
         <f>CONCATENATE(J3, C4, J4)</f>
         <v>Calibrated in accordance with procedure No. CPD.ACM.001. the torque transducer identified above, was calibrated with the transducer in the horizontal position. Torque was applied in ascending values using the calibration system ACM.01 equipped with reference transducer S/N 01040204008 validated by ACCREDIA calibration certificate S1611630,S1611631,S1611632. Torque was applied for a single run in the clockwise and or anti-clockwise directions as indicated on page two, with the direction viewed from the drive square of the transducer. The calibration was performed using a Load Beam and Weights Set traceable to National Standards. The uncertainty of applied torque was 0.05% of applied torque or 0.003 N·m whichever the greater</v>
       </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
     </row>
     <row r="41" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="45"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="45"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="45"/>
+      <c r="J44" s="45"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="45"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="45"/>
+      <c r="J46" s="45"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B47" s="2"/>
@@ -1579,14 +1570,14 @@
       <c r="J48" s="2"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
@@ -1614,26 +1605,26 @@
       <c r="J51" s="2"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B52" s="25" t="s">
+      <c r="B52" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="25"/>
+      <c r="C52" s="46"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
-      <c r="F52" s="25" t="s">
+      <c r="F52" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="46"/>
       <c r="J52" s="2"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -1653,26 +1644,26 @@
       <c r="J54" s="2"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B55" s="25" t="s">
+      <c r="B55" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="25"/>
+      <c r="C55" s="46"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
-      <c r="F55" s="25" t="s">
+      <c r="F55" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="46"/>
       <c r="J55" s="2"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -1714,11 +1705,11 @@
       <c r="J59" s="2"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
@@ -1727,10 +1718,10 @@
       <c r="J60" s="2"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C61" s="18"/>
+      <c r="C61" s="22"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -1751,11 +1742,11 @@
       <c r="J62" s="2"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B63" s="46">
+      <c r="B63" s="24">
         <f>A2</f>
         <v>1</v>
       </c>
-      <c r="C63" s="46"/>
+      <c r="C63" s="24"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -1773,75 +1764,75 @@
     <row r="73" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="74" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="75" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="23" t="s">
+      <c r="B75" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="24"/>
-      <c r="I75" s="24"/>
-      <c r="J75" s="24"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="19"/>
     </row>
     <row r="76" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="23"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="24"/>
-      <c r="I76" s="24"/>
-      <c r="J76" s="24"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="19"/>
     </row>
     <row r="77" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="23" t="s">
+      <c r="B77" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="23"/>
-      <c r="H77" s="24"/>
-      <c r="I77" s="24"/>
-      <c r="J77" s="24"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="19"/>
     </row>
     <row r="78" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="23"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="23"/>
-      <c r="G78" s="23"/>
-      <c r="H78" s="24"/>
-      <c r="I78" s="24"/>
-      <c r="J78" s="24"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="19"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="19"/>
     </row>
     <row r="79" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="12"/>
+      <c r="D79" s="9"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="12"/>
+      <c r="F79" s="9"/>
       <c r="G79" s="1"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
     </row>
     <row r="80" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="26" t="s">
+      <c r="B80" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C80" s="26"/>
-      <c r="D80" s="9">
+      <c r="C80" s="20"/>
+      <c r="D80" s="15">
         <f>A1</f>
         <v>2106001</v>
       </c>
       <c r="E80" s="1"/>
-      <c r="F80" s="12"/>
+      <c r="F80" s="9"/>
       <c r="G80" s="1"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
@@ -1859,15 +1850,15 @@
       <c r="J81" s="2"/>
     </row>
     <row r="82" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="26" t="s">
+      <c r="B82" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C82" s="26"/>
-      <c r="D82" s="27">
+      <c r="C82" s="20"/>
+      <c r="D82" s="21">
         <f>A2</f>
         <v>1</v>
       </c>
-      <c r="E82" s="27"/>
+      <c r="E82" s="21"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="2"/>
@@ -1886,10 +1877,10 @@
       <c r="J83" s="2"/>
     </row>
     <row r="84" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="26" t="s">
+      <c r="B84" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C84" s="26"/>
+      <c r="C84" s="20"/>
       <c r="D84" s="1" t="s">
         <v>20</v>
       </c>
@@ -1923,26 +1914,26 @@
       <c r="J86" s="2"/>
     </row>
     <row r="87" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="28" t="s">
+      <c r="B87" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C87" s="28"/>
-      <c r="D87" s="29" t="str">
+      <c r="C87" s="27"/>
+      <c r="D87" s="40" t="str">
         <f>C4</f>
         <v>01040204008</v>
       </c>
-      <c r="E87" s="47"/>
-      <c r="F87" s="13"/>
+      <c r="E87" s="41"/>
+      <c r="F87" s="10"/>
       <c r="G87" s="1"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
     </row>
     <row r="88" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="28" t="s">
+      <c r="B88" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C88" s="28"/>
+      <c r="C88" s="27"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -1952,8 +1943,8 @@
       <c r="J88" s="2"/>
     </row>
     <row r="89" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="1"/>
@@ -1963,303 +1954,360 @@
       <c r="J89" s="2"/>
     </row>
     <row r="90" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="6"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="6"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="4"/>
     </row>
     <row r="91" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="30" t="s">
+      <c r="B91" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C91" s="31"/>
-      <c r="D91" s="32"/>
-      <c r="E91" s="36" t="s">
+      <c r="C91" s="29"/>
+      <c r="D91" s="30"/>
+      <c r="E91" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="F91" s="37"/>
-      <c r="G91" s="38"/>
-      <c r="H91" s="30" t="s">
+      <c r="F91" s="35"/>
+      <c r="G91" s="36"/>
+      <c r="H91" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I91" s="31"/>
-      <c r="J91" s="32"/>
+      <c r="I91" s="29"/>
+      <c r="J91" s="30"/>
     </row>
     <row r="92" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="33"/>
-      <c r="C92" s="34"/>
-      <c r="D92" s="35"/>
-      <c r="E92" s="39"/>
-      <c r="F92" s="40"/>
-      <c r="G92" s="41"/>
-      <c r="H92" s="33"/>
-      <c r="I92" s="34"/>
-      <c r="J92" s="35"/>
+      <c r="B92" s="31"/>
+      <c r="C92" s="32"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="38"/>
+      <c r="G92" s="39"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="32"/>
+      <c r="J92" s="33"/>
     </row>
     <row r="93" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="33"/>
-      <c r="C93" s="34"/>
-      <c r="D93" s="35"/>
-      <c r="E93" s="39"/>
-      <c r="F93" s="40"/>
-      <c r="G93" s="41"/>
-      <c r="H93" s="33"/>
-      <c r="I93" s="34"/>
-      <c r="J93" s="35"/>
+      <c r="B93" s="31"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="38"/>
+      <c r="G93" s="39"/>
+      <c r="H93" s="31"/>
+      <c r="I93" s="32"/>
+      <c r="J93" s="33"/>
     </row>
     <row r="94" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="42" t="s">
+      <c r="B94" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C94" s="42"/>
-      <c r="D94" s="42"/>
-      <c r="E94" s="42" t="s">
+      <c r="C94" s="26"/>
+      <c r="D94" s="26"/>
+      <c r="E94" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F94" s="42"/>
-      <c r="G94" s="42"/>
-      <c r="H94" s="42" t="s">
+      <c r="F94" s="26"/>
+      <c r="G94" s="26"/>
+      <c r="H94" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="I94" s="42"/>
-      <c r="J94" s="42"/>
+      <c r="I94" s="26"/>
+      <c r="J94" s="26"/>
     </row>
     <row r="95" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="42" t="s">
+      <c r="B95" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C95" s="42"/>
-      <c r="D95" s="42"/>
-      <c r="E95" s="42" t="s">
+      <c r="C95" s="26"/>
+      <c r="D95" s="26"/>
+      <c r="E95" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F95" s="42"/>
-      <c r="G95" s="42"/>
-      <c r="H95" s="42" t="s">
+      <c r="F95" s="26"/>
+      <c r="G95" s="26"/>
+      <c r="H95" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="I95" s="42"/>
-      <c r="J95" s="42"/>
+      <c r="I95" s="26"/>
+      <c r="J95" s="26"/>
     </row>
     <row r="96" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="43" t="s">
+      <c r="B96" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C96" s="43"/>
-      <c r="D96" s="43"/>
-      <c r="E96" s="43" t="s">
+      <c r="C96" s="25"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="F96" s="43"/>
-      <c r="G96" s="43"/>
-      <c r="H96" s="43" t="s">
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="I96" s="43"/>
-      <c r="J96" s="43"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="25"/>
     </row>
     <row r="97" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="43" t="s">
+      <c r="B97" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C97" s="43"/>
-      <c r="D97" s="43"/>
-      <c r="E97" s="43" t="s">
+      <c r="C97" s="25"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="F97" s="43"/>
-      <c r="G97" s="43"/>
-      <c r="H97" s="43" t="s">
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="I97" s="43"/>
-      <c r="J97" s="43"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="25"/>
     </row>
     <row r="98" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="43" t="s">
+      <c r="B98" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C98" s="43"/>
-      <c r="D98" s="43"/>
-      <c r="E98" s="43" t="s">
+      <c r="C98" s="25"/>
+      <c r="D98" s="25"/>
+      <c r="E98" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="F98" s="43"/>
-      <c r="G98" s="43"/>
-      <c r="H98" s="43" t="s">
+      <c r="F98" s="25"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="I98" s="43"/>
-      <c r="J98" s="43"/>
+      <c r="I98" s="25"/>
+      <c r="J98" s="25"/>
     </row>
     <row r="99" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="43" t="s">
+      <c r="B99" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C99" s="43"/>
-      <c r="D99" s="43"/>
-      <c r="E99" s="43" t="s">
+      <c r="C99" s="25"/>
+      <c r="D99" s="25"/>
+      <c r="E99" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F99" s="43"/>
-      <c r="G99" s="43"/>
-      <c r="H99" s="43" t="s">
+      <c r="F99" s="25"/>
+      <c r="G99" s="25"/>
+      <c r="H99" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="I99" s="43"/>
-      <c r="J99" s="43"/>
+      <c r="I99" s="25"/>
+      <c r="J99" s="25"/>
     </row>
     <row r="100" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="43" t="s">
+      <c r="B100" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C100" s="43"/>
-      <c r="D100" s="43"/>
-      <c r="E100" s="43" t="s">
+      <c r="C100" s="25"/>
+      <c r="D100" s="25"/>
+      <c r="E100" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="F100" s="43"/>
-      <c r="G100" s="43"/>
-      <c r="H100" s="43" t="s">
+      <c r="F100" s="25"/>
+      <c r="G100" s="25"/>
+      <c r="H100" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="I100" s="43"/>
-      <c r="J100" s="43"/>
+      <c r="I100" s="25"/>
+      <c r="J100" s="25"/>
     </row>
     <row r="101" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="43" t="s">
+      <c r="B101" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C101" s="43"/>
-      <c r="D101" s="43"/>
-      <c r="E101" s="43" t="s">
+      <c r="C101" s="25"/>
+      <c r="D101" s="25"/>
+      <c r="E101" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="F101" s="43"/>
-      <c r="G101" s="43"/>
-      <c r="H101" s="43" t="s">
+      <c r="F101" s="25"/>
+      <c r="G101" s="25"/>
+      <c r="H101" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="I101" s="43"/>
-      <c r="J101" s="43"/>
+      <c r="I101" s="25"/>
+      <c r="J101" s="25"/>
     </row>
     <row r="102" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="43" t="s">
+      <c r="B102" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C102" s="43"/>
-      <c r="D102" s="43"/>
-      <c r="E102" s="43" t="s">
+      <c r="C102" s="25"/>
+      <c r="D102" s="25"/>
+      <c r="E102" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="F102" s="43"/>
-      <c r="G102" s="43"/>
-      <c r="H102" s="43" t="s">
+      <c r="F102" s="25"/>
+      <c r="G102" s="25"/>
+      <c r="H102" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="I102" s="43"/>
-      <c r="J102" s="43"/>
+      <c r="I102" s="25"/>
+      <c r="J102" s="25"/>
     </row>
     <row r="103" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="43" t="s">
+      <c r="B103" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C103" s="43"/>
-      <c r="D103" s="43"/>
-      <c r="E103" s="43" t="s">
+      <c r="C103" s="25"/>
+      <c r="D103" s="25"/>
+      <c r="E103" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="F103" s="43"/>
-      <c r="G103" s="43"/>
-      <c r="H103" s="43" t="s">
+      <c r="F103" s="25"/>
+      <c r="G103" s="25"/>
+      <c r="H103" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="I103" s="43"/>
-      <c r="J103" s="43"/>
+      <c r="I103" s="25"/>
+      <c r="J103" s="25"/>
     </row>
     <row r="104" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="42" t="s">
+      <c r="B104" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C104" s="42"/>
-      <c r="D104" s="42"/>
-      <c r="E104" s="42" t="s">
+      <c r="C104" s="26"/>
+      <c r="D104" s="26"/>
+      <c r="E104" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="F104" s="42"/>
-      <c r="G104" s="42"/>
-      <c r="H104" s="42" t="s">
+      <c r="F104" s="26"/>
+      <c r="G104" s="26"/>
+      <c r="H104" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="I104" s="42"/>
-      <c r="J104" s="42"/>
+      <c r="I104" s="26"/>
+      <c r="J104" s="26"/>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B105" s="7"/>
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="8"/>
-      <c r="F105" s="8"/>
-      <c r="G105" s="8"/>
-      <c r="H105" s="8"/>
-      <c r="I105" s="8"/>
-      <c r="J105" s="7"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="5"/>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B106" s="7"/>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
-      <c r="F106" s="8"/>
-      <c r="G106" s="8"/>
-      <c r="H106" s="8"/>
-      <c r="I106" s="8"/>
-      <c r="J106" s="7"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="5"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B107" s="7"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="7"/>
-      <c r="I107" s="7"/>
-      <c r="J107" s="7"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="5"/>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B108" s="44" t="s">
+      <c r="B108" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C108" s="44"/>
-      <c r="D108" s="44"/>
-      <c r="E108" s="44"/>
-      <c r="F108" s="44"/>
-      <c r="G108" s="44"/>
-      <c r="H108" s="44"/>
-      <c r="I108" s="44"/>
-      <c r="J108" s="44"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="17"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="17"/>
+      <c r="G108" s="17"/>
+      <c r="H108" s="17"/>
+      <c r="I108" s="17"/>
+      <c r="J108" s="17"/>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B109" s="44" t="s">
+      <c r="B109" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C109" s="44"/>
-      <c r="D109" s="44"/>
-      <c r="E109" s="44"/>
-      <c r="F109" s="44"/>
-      <c r="G109" s="44"/>
-      <c r="H109" s="44"/>
-      <c r="I109" s="44"/>
-      <c r="J109" s="44"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="17"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="17"/>
+      <c r="H109" s="17"/>
+      <c r="I109" s="17"/>
+      <c r="J109" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="73">
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="B30:J37"/>
+    <mergeCell ref="B39:J46"/>
+    <mergeCell ref="B75:G76"/>
+    <mergeCell ref="H75:J78"/>
+    <mergeCell ref="B77:G78"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B91:D93"/>
+    <mergeCell ref="E91:G93"/>
+    <mergeCell ref="H91:J93"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="H94:J94"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="H95:J95"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="H97:J97"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="E98:G98"/>
+    <mergeCell ref="H98:J98"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="H99:J99"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="H100:J100"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="H101:J101"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="E102:G102"/>
+    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="E103:G103"/>
+    <mergeCell ref="H103:J103"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="E104:G104"/>
+    <mergeCell ref="H104:J104"/>
     <mergeCell ref="B108:J108"/>
     <mergeCell ref="B109:J109"/>
     <mergeCell ref="B9:G10"/>
@@ -2276,63 +2324,6 @@
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="E103:G103"/>
-    <mergeCell ref="H103:J103"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="E104:G104"/>
-    <mergeCell ref="H104:J104"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="H101:J101"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="E102:G102"/>
-    <mergeCell ref="H102:J102"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="H99:J99"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="H100:J100"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="H97:J97"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="E98:G98"/>
-    <mergeCell ref="H98:J98"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="H95:J95"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="E96:G96"/>
-    <mergeCell ref="H96:J96"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B91:D93"/>
-    <mergeCell ref="E91:G93"/>
-    <mergeCell ref="H91:J93"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="H94:J94"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="B30:J37"/>
-    <mergeCell ref="B39:J46"/>
-    <mergeCell ref="B75:G76"/>
-    <mergeCell ref="H75:J78"/>
-    <mergeCell ref="B77:G78"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="F52:I52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="B56:D56"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
